--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H2">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.4420086865364</v>
+        <v>85.50708266666668</v>
       </c>
       <c r="N2">
-        <v>82.4420086865364</v>
+        <v>256.521248</v>
       </c>
       <c r="O2">
-        <v>0.8149319193133052</v>
+        <v>0.8101065959076379</v>
       </c>
       <c r="P2">
-        <v>0.8149319193133052</v>
+        <v>0.8229741965671684</v>
       </c>
       <c r="Q2">
-        <v>13.37216271342324</v>
+        <v>33.94234999050311</v>
       </c>
       <c r="R2">
-        <v>13.37216271342324</v>
+        <v>305.481149914528</v>
       </c>
       <c r="S2">
-        <v>0.8149319193133052</v>
+        <v>0.3544899428958072</v>
       </c>
       <c r="T2">
-        <v>0.8149319193133052</v>
+        <v>0.3893698772345659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H3">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.8400671186212</v>
+        <v>14.793011</v>
       </c>
       <c r="N3">
-        <v>13.8400671186212</v>
+        <v>44.379033</v>
       </c>
       <c r="O3">
-        <v>0.1368078318334918</v>
+        <v>0.1401511478429371</v>
       </c>
       <c r="P3">
-        <v>0.1368078318334918</v>
+        <v>0.1423772857506246</v>
       </c>
       <c r="Q3">
-        <v>2.244870454073804</v>
+        <v>5.872139957490333</v>
       </c>
       <c r="R3">
-        <v>2.244870454073804</v>
+        <v>52.849259617413</v>
       </c>
       <c r="S3">
-        <v>0.1368078318334918</v>
+        <v>0.06132794455273014</v>
       </c>
       <c r="T3">
-        <v>0.1368078318334918</v>
+        <v>0.06736228973515186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.162200835793161</v>
+        <v>0.3969536666666666</v>
       </c>
       <c r="H4">
-        <v>0.162200835793161</v>
+        <v>1.190861</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.4375843187631858</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.4731252557598102</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.11555340346157</v>
+        <v>0.098439</v>
       </c>
       <c r="N4">
-        <v>0.11555340346157</v>
+        <v>0.295317</v>
       </c>
       <c r="O4">
-        <v>0.001142235110065927</v>
+        <v>0.0009326254704002371</v>
       </c>
       <c r="P4">
-        <v>0.001142235110065927</v>
+        <v>0.0009474391408216853</v>
       </c>
       <c r="Q4">
-        <v>0.018742858620211</v>
+        <v>0.039075721993</v>
       </c>
       <c r="R4">
-        <v>0.018742858620211</v>
+        <v>0.351681497937</v>
       </c>
       <c r="S4">
-        <v>0.001142235110065927</v>
+        <v>0.0004081022811262834</v>
       </c>
       <c r="T4">
-        <v>0.001142235110065927</v>
+        <v>0.0004482573858181147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,743 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.3969536666666666</v>
+      </c>
+      <c r="H5">
+        <v>1.190861</v>
+      </c>
+      <c r="I5">
+        <v>0.4375843187631858</v>
+      </c>
+      <c r="J5">
+        <v>0.4731252557598102</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.200881</v>
+      </c>
+      <c r="N5">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="P5">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="Q5">
+        <v>0.07974044951366666</v>
+      </c>
+      <c r="R5">
+        <v>0.7176640456229999</v>
+      </c>
+      <c r="S5">
+        <v>0.0008327999505778089</v>
+      </c>
+      <c r="T5">
+        <v>0.0009147430583460691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.3969536666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.190861</v>
+      </c>
+      <c r="I6">
+        <v>0.4375843187631858</v>
+      </c>
+      <c r="J6">
+        <v>0.4731252557598102</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>4.9509955</v>
+      </c>
+      <c r="N6">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="P6">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="Q6">
+        <v>1.965315817375167</v>
+      </c>
+      <c r="R6">
+        <v>11.791894904251</v>
+      </c>
+      <c r="S6">
+        <v>0.02052552908294441</v>
+      </c>
+      <c r="T6">
+        <v>0.01503008834592827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.917282</v>
+      </c>
+      <c r="I7">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J7">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>85.50708266666668</v>
+      </c>
+      <c r="N7">
+        <v>256.521248</v>
+      </c>
+      <c r="O7">
+        <v>0.8101065959076379</v>
+      </c>
+      <c r="P7">
+        <v>0.8229741965671684</v>
+      </c>
+      <c r="Q7">
+        <v>26.14470260088178</v>
+      </c>
+      <c r="R7">
+        <v>235.302323407936</v>
+      </c>
+      <c r="S7">
+        <v>0.2730522233907667</v>
+      </c>
+      <c r="T7">
+        <v>0.2999191171173438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.917282</v>
+      </c>
+      <c r="I8">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J8">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>14.793011</v>
+      </c>
+      <c r="N8">
+        <v>44.379033</v>
+      </c>
+      <c r="O8">
+        <v>0.1401511478429371</v>
+      </c>
+      <c r="P8">
+        <v>0.1423772857506246</v>
+      </c>
+      <c r="Q8">
+        <v>4.523120905367334</v>
+      </c>
+      <c r="R8">
+        <v>40.708088148306</v>
+      </c>
+      <c r="S8">
+        <v>0.04723894697636199</v>
+      </c>
+      <c r="T8">
+        <v>0.05188700935947989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.162200835793161</v>
-      </c>
-      <c r="H5">
-        <v>0.162200835793161</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.76666038750486</v>
-      </c>
-      <c r="N5">
-        <v>4.76666038750486</v>
-      </c>
-      <c r="O5">
-        <v>0.04711801374313696</v>
-      </c>
-      <c r="P5">
-        <v>0.04711801374313696</v>
-      </c>
-      <c r="Q5">
-        <v>0.773156298795441</v>
-      </c>
-      <c r="R5">
-        <v>0.773156298795441</v>
-      </c>
-      <c r="S5">
-        <v>0.04711801374313696</v>
-      </c>
-      <c r="T5">
-        <v>0.04711801374313696</v>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.917282</v>
+      </c>
+      <c r="I9">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J9">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.098439</v>
+      </c>
+      <c r="N9">
+        <v>0.295317</v>
+      </c>
+      <c r="O9">
+        <v>0.0009326254704002371</v>
+      </c>
+      <c r="P9">
+        <v>0.0009474391408216853</v>
+      </c>
+      <c r="Q9">
+        <v>0.030098774266</v>
+      </c>
+      <c r="R9">
+        <v>0.270888968394</v>
+      </c>
+      <c r="S9">
+        <v>0.0003143480864988269</v>
+      </c>
+      <c r="T9">
+        <v>0.0003452782746080457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.917282</v>
+      </c>
+      <c r="I10">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J10">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.200881</v>
+      </c>
+      <c r="N10">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="P10">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="Q10">
+        <v>0.06142150848066666</v>
+      </c>
+      <c r="R10">
+        <v>0.552793576326</v>
+      </c>
+      <c r="S10">
+        <v>0.000641479067889463</v>
+      </c>
+      <c r="T10">
+        <v>0.0007045972133152391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.3057606666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.917282</v>
+      </c>
+      <c r="I11">
+        <v>0.3370571536759812</v>
+      </c>
+      <c r="J11">
+        <v>0.3644331965308044</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.9509955</v>
+      </c>
+      <c r="N11">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="P11">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="Q11">
+        <v>1.513819684743667</v>
+      </c>
+      <c r="R11">
+        <v>9.082918108462001</v>
+      </c>
+      <c r="S11">
+        <v>0.01581015615446422</v>
+      </c>
+      <c r="T11">
+        <v>0.01157719456605748</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2044335</v>
+      </c>
+      <c r="H12">
+        <v>0.408867</v>
+      </c>
+      <c r="I12">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J12">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>85.50708266666668</v>
+      </c>
+      <c r="N12">
+        <v>256.521248</v>
+      </c>
+      <c r="O12">
+        <v>0.8101065959076379</v>
+      </c>
+      <c r="P12">
+        <v>0.8229741965671684</v>
+      </c>
+      <c r="Q12">
+        <v>17.480512184336</v>
+      </c>
+      <c r="R12">
+        <v>104.883073106016</v>
+      </c>
+      <c r="S12">
+        <v>0.1825644296210641</v>
+      </c>
+      <c r="T12">
+        <v>0.1336852022152588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2044335</v>
+      </c>
+      <c r="H13">
+        <v>0.408867</v>
+      </c>
+      <c r="I13">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J13">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>14.793011</v>
+      </c>
+      <c r="N13">
+        <v>44.379033</v>
+      </c>
+      <c r="O13">
+        <v>0.1401511478429371</v>
+      </c>
+      <c r="P13">
+        <v>0.1423772857506246</v>
+      </c>
+      <c r="Q13">
+        <v>3.0241870142685</v>
+      </c>
+      <c r="R13">
+        <v>18.145122085611</v>
+      </c>
+      <c r="S13">
+        <v>0.03158425631384492</v>
+      </c>
+      <c r="T13">
+        <v>0.02312798665599288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2044335</v>
+      </c>
+      <c r="H14">
+        <v>0.408867</v>
+      </c>
+      <c r="I14">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J14">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.098439</v>
+      </c>
+      <c r="N14">
+        <v>0.295317</v>
+      </c>
+      <c r="O14">
+        <v>0.0009326254704002371</v>
+      </c>
+      <c r="P14">
+        <v>0.0009474391408216853</v>
+      </c>
+      <c r="Q14">
+        <v>0.0201242293065</v>
+      </c>
+      <c r="R14">
+        <v>0.120745375839</v>
+      </c>
+      <c r="S14">
+        <v>0.0002101751027751267</v>
+      </c>
+      <c r="T14">
+        <v>0.0001539034803955248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2044335</v>
+      </c>
+      <c r="H15">
+        <v>0.408867</v>
+      </c>
+      <c r="I15">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J15">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.200881</v>
+      </c>
+      <c r="N15">
+        <v>0.6026429999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.001903175947738904</v>
+      </c>
+      <c r="P15">
+        <v>0.001933405683188583</v>
+      </c>
+      <c r="Q15">
+        <v>0.0410668059135</v>
+      </c>
+      <c r="R15">
+        <v>0.2464008354809999</v>
+      </c>
+      <c r="S15">
+        <v>0.0004288969292716324</v>
+      </c>
+      <c r="T15">
+        <v>0.000314065411527275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2044335</v>
+      </c>
+      <c r="H16">
+        <v>0.408867</v>
+      </c>
+      <c r="I16">
+        <v>0.225358527560833</v>
+      </c>
+      <c r="J16">
+        <v>0.1624415477093853</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.9509955</v>
+      </c>
+      <c r="N16">
+        <v>9.901991000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.04690645483128595</v>
+      </c>
+      <c r="P16">
+        <v>0.03176767285819665</v>
+      </c>
+      <c r="Q16">
+        <v>1.01214933854925</v>
+      </c>
+      <c r="R16">
+        <v>4.048597354197</v>
+      </c>
+      <c r="S16">
+        <v>0.01057076959387732</v>
+      </c>
+      <c r="T16">
+        <v>0.005160389946210897</v>
       </c>
     </row>
   </sheetData>
